--- a/Trials_backward.xlsx
+++ b/Trials_backward.xlsx
@@ -5,15 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Testing" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="practice" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="baseline" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="main" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="post" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="tf_baseline" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="nf_baseline" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="main" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="nf_post" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="tf_post" sheetId="8" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="28">
   <si>
     <t xml:space="preserve">Parameter</t>
   </si>
@@ -759,10 +761,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -980,52 +982,26 @@
         <v>0</v>
       </c>
       <c r="L5" s="9" t="n">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="M5" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="M6" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9"/>
@@ -1312,21 +1288,7 @@
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2671,6 +2633,1465 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T36" activeCellId="0" sqref="T36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="18.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="8" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="8" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="8" width="9.58"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q12" activeCellId="0" sqref="Q12"/>
     </sheetView>
   </sheetViews>
@@ -4122,14 +5543,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M241"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A123" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A123" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P156" activeCellId="0" sqref="P156"/>
     </sheetView>
   </sheetViews>
@@ -11700,7 +13121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -13157,4 +14578,1463 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J36" activeCellId="0" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="18.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="8" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="8" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="8" width="9.58"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>